--- a/C조 프로젝트일정.xlsx
+++ b/C조 프로젝트일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e79d05acf6b6f96/JungsuckCoding/TeamProject/03.업무일지/로그관리용/teamlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8484F86E447A9A3083F9F0BD4985928F1512AA1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_8484F86E447A9A3083F9F0BD4985928F1512AA1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A031F770-5CE4-4C5F-9458-D500819956C0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,19 +170,21 @@
     <t>로그인/회원가입/관리자</t>
   </si>
   <si>
-    <t>Mybatis mapper 작성 +
-DAO 작성 및 TEST + HTML/css 작업</t>
-  </si>
-  <si>
     <t>발표 준비</t>
-  </si>
-  <si>
-    <t>Service + Controller + View 구현</t>
   </si>
   <si>
     <t xml:space="preserve">	
 	3차 개발 및 추가 기능 구현
 </t>
+  </si>
+  <si>
+    <t>Mybatis mapper 작성 +
+DAO 작성 및 TEST + HTML/css 작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service + Controller + View 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -467,22 +469,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,7 +484,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,10 +529,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,9 +1477,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B3:BE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y59" sqref="Y59"/>
+      <selection pane="bottomLeft" activeCell="Q40" sqref="Q40:W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1492,80 +1494,80 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:57" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21" t="s">
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="21" t="s">
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="21" t="s">
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="21" t="s">
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="21" t="s">
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="21" t="s">
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="23"/>
+      <c r="BA3" s="41"/>
+      <c r="BB3" s="42"/>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
-      <c r="BE3" s="24"/>
+      <c r="BE3" s="25"/>
     </row>
     <row r="4" spans="2:57" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
@@ -1731,7 +1733,7 @@
       <c r="BD4" s="1">
         <v>31</v>
       </c>
-      <c r="BE4" s="25"/>
+      <c r="BE4" s="27"/>
     </row>
     <row r="5" spans="2:57" ht="56.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -1741,59 +1743,59 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="27"/>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="27"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="27"/>
-      <c r="BC5" s="27"/>
-      <c r="BD5" s="27"/>
-      <c r="BE5" s="28"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="24"/>
     </row>
     <row r="6" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
@@ -1853,10 +1855,10 @@
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
-      <c r="BE6" s="24"/>
+      <c r="BE6" s="25"/>
     </row>
     <row r="7" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1921,11 +1923,11 @@
       <c r="BB7" s="2"/>
       <c r="BC7" s="2"/>
       <c r="BD7" s="2"/>
-      <c r="BE7" s="29"/>
+      <c r="BE7" s="26"/>
     </row>
     <row r="8" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="29"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1983,11 +1985,11 @@
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
-      <c r="BE8" s="29"/>
+      <c r="BE8" s="26"/>
     </row>
     <row r="9" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2045,11 +2047,11 @@
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
-      <c r="BE9" s="29"/>
+      <c r="BE9" s="26"/>
     </row>
     <row r="10" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2107,11 +2109,11 @@
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
-      <c r="BE10" s="29"/>
+      <c r="BE10" s="26"/>
     </row>
     <row r="11" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2169,11 +2171,11 @@
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
-      <c r="BE11" s="29"/>
+      <c r="BE11" s="26"/>
     </row>
     <row r="12" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2230,11 +2232,11 @@
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
-      <c r="BE12" s="29"/>
+      <c r="BE12" s="26"/>
     </row>
     <row r="13" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2292,11 +2294,11 @@
       <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
-      <c r="BE13" s="29"/>
+      <c r="BE13" s="26"/>
     </row>
     <row r="14" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="29"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2354,10 +2356,10 @@
       <c r="BB14" s="2"/>
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
-      <c r="BE14" s="29"/>
+      <c r="BE14" s="26"/>
     </row>
     <row r="15" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="29"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2416,11 +2418,11 @@
       <c r="BB15" s="2"/>
       <c r="BC15" s="2"/>
       <c r="BD15" s="2"/>
-      <c r="BE15" s="29"/>
+      <c r="BE15" s="26"/>
     </row>
     <row r="16" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2478,11 +2480,11 @@
       <c r="BB16" s="2"/>
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
-      <c r="BE16" s="29"/>
+      <c r="BE16" s="26"/>
     </row>
     <row r="17" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2540,11 +2542,11 @@
       <c r="BB17" s="2"/>
       <c r="BC17" s="2"/>
       <c r="BD17" s="2"/>
-      <c r="BE17" s="29"/>
+      <c r="BE17" s="26"/>
     </row>
     <row r="18" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2602,11 +2604,11 @@
       <c r="BB18" s="2"/>
       <c r="BC18" s="2"/>
       <c r="BD18" s="2"/>
-      <c r="BE18" s="29"/>
+      <c r="BE18" s="26"/>
     </row>
     <row r="19" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2664,11 +2666,11 @@
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
       <c r="BD19" s="2"/>
-      <c r="BE19" s="29"/>
+      <c r="BE19" s="26"/>
     </row>
     <row r="20" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2726,11 +2728,11 @@
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
-      <c r="BE20" s="29"/>
+      <c r="BE20" s="26"/>
     </row>
     <row r="21" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
@@ -2788,11 +2790,11 @@
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
       <c r="BD21" s="2"/>
-      <c r="BE21" s="29"/>
+      <c r="BE21" s="26"/>
     </row>
     <row r="22" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="29"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2850,10 +2852,10 @@
       <c r="BB22" s="2"/>
       <c r="BC22" s="2"/>
       <c r="BD22" s="2"/>
-      <c r="BE22" s="29"/>
+      <c r="BE22" s="26"/>
     </row>
     <row r="23" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="29"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2912,11 +2914,11 @@
       <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
       <c r="BD23" s="2"/>
-      <c r="BE23" s="29"/>
+      <c r="BE23" s="26"/>
     </row>
     <row r="24" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="29"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
@@ -2974,11 +2976,11 @@
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
       <c r="BD24" s="2"/>
-      <c r="BE24" s="29"/>
+      <c r="BE24" s="26"/>
     </row>
     <row r="25" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
@@ -3036,11 +3038,11 @@
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
-      <c r="BE25" s="29"/>
+      <c r="BE25" s="26"/>
     </row>
     <row r="26" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
@@ -3098,11 +3100,11 @@
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
-      <c r="BE26" s="29"/>
+      <c r="BE26" s="26"/>
     </row>
     <row r="27" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
@@ -3160,11 +3162,11 @@
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
       <c r="BD27" s="2"/>
-      <c r="BE27" s="29"/>
+      <c r="BE27" s="26"/>
     </row>
     <row r="28" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
@@ -3222,11 +3224,11 @@
       <c r="BB28" s="2"/>
       <c r="BC28" s="2"/>
       <c r="BD28" s="2"/>
-      <c r="BE28" s="29"/>
+      <c r="BE28" s="26"/>
     </row>
     <row r="29" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="1" t="s">
         <v>48</v>
       </c>
@@ -3284,11 +3286,11 @@
       <c r="BB29" s="2"/>
       <c r="BC29" s="2"/>
       <c r="BD29" s="2"/>
-      <c r="BE29" s="29"/>
+      <c r="BE29" s="26"/>
     </row>
     <row r="30" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3346,10 +3348,10 @@
       <c r="BB30" s="2"/>
       <c r="BC30" s="2"/>
       <c r="BD30" s="2"/>
-      <c r="BE30" s="29"/>
+      <c r="BE30" s="26"/>
     </row>
     <row r="31" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3410,10 +3412,10 @@
       <c r="BB31" s="2"/>
       <c r="BC31" s="2"/>
       <c r="BD31" s="2"/>
-      <c r="BE31" s="29"/>
+      <c r="BE31" s="26"/>
     </row>
     <row r="32" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="29"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
@@ -3472,11 +3474,11 @@
       <c r="BB32" s="2"/>
       <c r="BC32" s="2"/>
       <c r="BD32" s="2"/>
-      <c r="BE32" s="29"/>
+      <c r="BE32" s="26"/>
     </row>
     <row r="33" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="29"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3534,11 +3536,11 @@
       <c r="BB33" s="2"/>
       <c r="BC33" s="2"/>
       <c r="BD33" s="2"/>
-      <c r="BE33" s="29"/>
+      <c r="BE33" s="26"/>
     </row>
     <row r="34" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
@@ -3596,11 +3598,11 @@
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
       <c r="BD34" s="2"/>
-      <c r="BE34" s="29"/>
+      <c r="BE34" s="26"/>
     </row>
     <row r="35" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
@@ -3658,11 +3660,11 @@
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
       <c r="BD35" s="2"/>
-      <c r="BE35" s="29"/>
+      <c r="BE35" s="26"/>
     </row>
     <row r="36" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
@@ -3720,11 +3722,11 @@
       <c r="BB36" s="2"/>
       <c r="BC36" s="2"/>
       <c r="BD36" s="2"/>
-      <c r="BE36" s="29"/>
+      <c r="BE36" s="26"/>
     </row>
     <row r="37" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="1" t="s">
         <v>6</v>
       </c>
@@ -3782,11 +3784,11 @@
       <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
       <c r="BD37" s="2"/>
-      <c r="BE37" s="29"/>
+      <c r="BE37" s="26"/>
     </row>
     <row r="38" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3844,11 +3846,11 @@
       <c r="BB38" s="2"/>
       <c r="BC38" s="2"/>
       <c r="BD38" s="2"/>
-      <c r="BE38" s="29"/>
+      <c r="BE38" s="26"/>
     </row>
     <row r="39" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="29"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3906,10 +3908,10 @@
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
       <c r="BD39" s="2"/>
-      <c r="BE39" s="29"/>
+      <c r="BE39" s="26"/>
     </row>
     <row r="40" spans="2:57" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="29"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
@@ -3926,58 +3928,58 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="30" t="s">
+      <c r="Q40" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM40" s="35"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
+      <c r="AR40" s="35"/>
+      <c r="AS40" s="35"/>
+      <c r="AT40" s="35"/>
+      <c r="AU40" s="35"/>
+      <c r="AV40" s="35"/>
+      <c r="AW40" s="35"/>
+      <c r="AX40" s="35"/>
+      <c r="AY40" s="36"/>
+      <c r="AZ40" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="35"/>
-      <c r="AL40" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="37"/>
-      <c r="AO40" s="37"/>
-      <c r="AP40" s="37"/>
-      <c r="AQ40" s="37"/>
-      <c r="AR40" s="37"/>
-      <c r="AS40" s="37"/>
-      <c r="AT40" s="37"/>
-      <c r="AU40" s="37"/>
-      <c r="AV40" s="37"/>
-      <c r="AW40" s="37"/>
-      <c r="AX40" s="37"/>
-      <c r="AY40" s="38"/>
-      <c r="AZ40" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA40" s="40"/>
-      <c r="BB40" s="40"/>
-      <c r="BC40" s="41"/>
+      <c r="BA40" s="38"/>
+      <c r="BB40" s="38"/>
+      <c r="BC40" s="39"/>
       <c r="BD40" s="17"/>
-      <c r="BE40" s="29"/>
+      <c r="BE40" s="26"/>
     </row>
     <row r="41" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="29"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>4</v>
@@ -3985,7 +3987,7 @@
       <c r="E41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G41" s="1"/>
@@ -4038,10 +4040,10 @@
       <c r="BB41" s="18"/>
       <c r="BC41" s="18"/>
       <c r="BD41" s="17"/>
-      <c r="BE41" s="29"/>
+      <c r="BE41" s="26"/>
     </row>
     <row r="42" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="29"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>12</v>
@@ -4049,7 +4051,7 @@
       <c r="E42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="29"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -4100,10 +4102,10 @@
       <c r="BB42" s="18"/>
       <c r="BC42" s="18"/>
       <c r="BD42" s="17"/>
-      <c r="BE42" s="29"/>
+      <c r="BE42" s="26"/>
     </row>
     <row r="43" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="29"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>10</v>
@@ -4111,7 +4113,7 @@
       <c r="E43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="29"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -4162,10 +4164,10 @@
       <c r="BB43" s="18"/>
       <c r="BC43" s="18"/>
       <c r="BD43" s="17"/>
-      <c r="BE43" s="29"/>
+      <c r="BE43" s="26"/>
     </row>
     <row r="44" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="29"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -4173,7 +4175,7 @@
       <c r="E44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="29"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4224,10 +4226,10 @@
       <c r="BB44" s="18"/>
       <c r="BC44" s="18"/>
       <c r="BD44" s="17"/>
-      <c r="BE44" s="29"/>
+      <c r="BE44" s="26"/>
     </row>
     <row r="45" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="29"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
         <v>6</v>
@@ -4235,7 +4237,7 @@
       <c r="E45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="29"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4286,10 +4288,10 @@
       <c r="BB45" s="18"/>
       <c r="BC45" s="18"/>
       <c r="BD45" s="17"/>
-      <c r="BE45" s="29"/>
+      <c r="BE45" s="26"/>
     </row>
     <row r="46" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="29"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>48</v>
@@ -4297,7 +4299,7 @@
       <c r="E46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="29"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -4348,10 +4350,10 @@
       <c r="BB46" s="18"/>
       <c r="BC46" s="18"/>
       <c r="BD46" s="17"/>
-      <c r="BE46" s="29"/>
+      <c r="BE46" s="26"/>
     </row>
     <row r="47" spans="2:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="25"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>0</v>
@@ -4359,7 +4361,7 @@
       <c r="E47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="25"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -4410,7 +4412,7 @@
       <c r="BB47" s="18"/>
       <c r="BC47" s="18"/>
       <c r="BD47" s="17"/>
-      <c r="BE47" s="29"/>
+      <c r="BE47" s="26"/>
     </row>
     <row r="48" spans="2:57" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
@@ -4472,7 +4474,7 @@
       <c r="BB48" s="13"/>
       <c r="BC48" s="13"/>
       <c r="BD48" s="19"/>
-      <c r="BE48" s="29"/>
+      <c r="BE48" s="26"/>
     </row>
     <row r="49" spans="2:57" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
@@ -4532,69 +4534,69 @@
       <c r="BB49" s="19"/>
       <c r="BC49" s="19"/>
       <c r="BD49" s="13"/>
-      <c r="BE49" s="25"/>
+      <c r="BE49" s="27"/>
     </row>
     <row r="51" spans="2:57" x14ac:dyDescent="0.4">
       <c r="G51" s="14"/>
-      <c r="H51" s="42" t="s">
+      <c r="H51" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
     </row>
     <row r="52" spans="2:57" x14ac:dyDescent="0.4">
       <c r="G52" s="15"/>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
     </row>
     <row r="53" spans="2:57" x14ac:dyDescent="0.4">
       <c r="G53" s="16"/>
-      <c r="H53" s="43" t="s">
+      <c r="H53" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="G5:BE5"/>
-    <mergeCell ref="BE6:BE49"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="B7:B30"/>
     <mergeCell ref="C8:C14"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="C24:C30"/>
     <mergeCell ref="B31:B47"/>
     <mergeCell ref="C33:C39"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="G5:BE5"/>
+    <mergeCell ref="BE6:BE49"/>
     <mergeCell ref="Q40:W40"/>
     <mergeCell ref="X40:AK40"/>
     <mergeCell ref="AL40:AY40"/>
     <mergeCell ref="AZ40:BC40"/>
-    <mergeCell ref="F41:F47"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AZ3:BB3"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="X3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
